--- a/part_3_cohere/analysis/dense_analysis_results_data_jats.xlsx
+++ b/part_3_cohere/analysis/dense_analysis_results_data_jats.xlsx
@@ -2,31 +2,46 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BE13D-5388-314A-8CD3-1EB661102939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C28516-6616-3447-89DC-D7EF095433F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30280" yWindow="500" windowWidth="19320" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30280" yWindow="500" windowWidth="30080" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avg scores" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="avg doc score" sheetId="3" r:id="rId3"/>
+    <sheet name="precision" sheetId="4" r:id="rId2"/>
+    <sheet name="raw data" sheetId="1" r:id="rId3"/>
+    <sheet name="avg doc score" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
-    <pivotCache cacheId="25" r:id="rId5"/>
+    <pivotCache cacheId="68" r:id="rId5"/>
+    <pivotCache cacheId="69" r:id="rId6"/>
+    <pivotCache cacheId="70" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="146">
   <si>
     <t>Query</t>
   </si>
@@ -133,11 +148,6 @@
   </si>
   <si>
     <t>[(0.7892503, '10.48550/arXiv.2401.16359'), (0.75181264, '10.48550/arXiv.2409.10633'), (0.7128128, '10.1007/s11192-023-04923-y'), (0.7036111, '10.48550/arXiv.2404.17663'), (0.58123237, '10.3145/epi.2023.mar.09')]</t>
-  </si>
-  <si>
-    <t>Summary: OpenAlex is a fully open catalogue of the global research system that launched in January 2022.
-DOI: 10.1007/s11192-023-04923-y
-Is there anything else I can help you with, my lady?</t>
   </si>
   <si>
     <t>Summary: OpenAlex is a fully open catalogue of the global research system that launched in January 2022. It is a promising open source of scholarly metadata, and a competitor to established proprietary sources, such as the Web of Science and Scopus.
@@ -836,15 +846,24 @@
   <si>
     <t>Average of Documents score:data_jats</t>
   </si>
+  <si>
+    <t>StdDev of Documents score</t>
+  </si>
+  <si>
+    <t>Min of Precision</t>
+  </si>
+  <si>
+    <t>Max of Precision</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -905,47 +924,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -963,7 +961,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Poppy Riddle" refreshedDate="45914.570482291667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="71" xr:uid="{D430792A-DCEB-C54E-8EE0-8B531401427E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:J72" sheet="Sheet1"/>
+    <worksheetSource ref="B1:J71" sheet="raw data"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Query" numFmtId="0">
@@ -1067,6 +1065,57 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Poppy Riddle" refreshedDate="45914.616650115742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="71" xr:uid="{8E04258C-B270-7546-9DB7-1A3A58FE9CB9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:H71" sheet="raw data"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Query" numFmtId="0">
+      <sharedItems count="14">
+        <s v="which studies examined the abstract in metadata?"/>
+        <s v="which studies examined citations?"/>
+        <s v="Tell me about OpenAlex."/>
+        <s v="Tell me about Crossref."/>
+        <s v="Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?"/>
+        <s v="Which papers address funding metadata, its availability, or its analysis in scholarly databases?"/>
+        <s v="Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?"/>
+        <s v="What is Crossref’s role in the scholarly research ecosystem?"/>
+        <s v="What are the key features and limitations of OpenAlex as a bibliometric database?"/>
+        <s v="What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?"/>
+        <s v="How is RAG used to improve question answering or information retrieval systems?"/>
+        <s v="What are the main challenges in normalizing citation metrics across scientific fields?"/>
+        <s v="What methods are used to detect and correct errors in bibliographic datasets?"/>
+        <s v="tell me about how RAG works."/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Precision" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Recall" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="F1-Score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.68888888888888888" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.68888888888888888" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Balanced accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.43055555555555558" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Faithfulness score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="71">
   <r>
@@ -3058,8 +3107,652 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="71">
+  <r>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.4375"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.5"/>
+    <n v="0.4"/>
+    <n v="0.88888888888888884"/>
+    <n v="0.88888888888888884"/>
+    <n v="0.67500000000000004"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.5"/>
+    <n v="0.4"/>
+    <n v="0.88888888888888884"/>
+    <n v="0.88888888888888884"/>
+    <n v="0.67500000000000004"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.5"/>
+    <n v="0.4"/>
+    <n v="0.88888888888888884"/>
+    <n v="0.88888888888888884"/>
+    <n v="0.67500000000000004"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.5"/>
+    <n v="0.4"/>
+    <n v="0.88888888888888884"/>
+    <n v="0.88888888888888884"/>
+    <n v="0.67500000000000004"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.25"/>
+    <n v="0.2"/>
+    <n v="0.84444444444444444"/>
+    <n v="0.84444444444444444"/>
+    <n v="0.5625"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.4"/>
+    <n v="0.93333333333333335"/>
+    <n v="0.93333333333333335"/>
+    <n v="0.7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.4"/>
+    <n v="0.93333333333333335"/>
+    <n v="0.93333333333333335"/>
+    <n v="0.7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.4"/>
+    <n v="0.93333333333333335"/>
+    <n v="0.93333333333333335"/>
+    <n v="0.7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.4"/>
+    <n v="0.93333333333333335"/>
+    <n v="0.93333333333333335"/>
+    <n v="0.7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.47368421052631582"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.7142857142857143"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.85714285714285721"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.7142857142857143"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.85714285714285721"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.7142857142857143"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.85714285714285721"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.7142857142857143"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.85714285714285721"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.7142857142857143"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.85714285714285721"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.68888888888888888"/>
+    <n v="0.68888888888888888"/>
+    <n v="0.43055555555555558"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0.55555555555555558"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77777777777777779"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0.55555555555555558"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77777777777777779"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0.55555555555555558"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77777777777777779"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0.55555555555555558"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77777777777777779"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.4375"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.4"/>
+    <n v="0.4"/>
+    <n v="0.8666666666666667"/>
+    <n v="0.8666666666666667"/>
+    <n v="0.66250000000000009"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.88749999999999996"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.88749999999999996"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.88749999999999996"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.88749999999999996"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.4375"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.4375"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="0.8"/>
+    <n v="0.97777777777777775"/>
+    <n v="0.97777777777777775"/>
+    <n v="0.9"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="0.8"/>
+    <n v="0.97777777777777775"/>
+    <n v="0.97777777777777775"/>
+    <n v="0.9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="0.8"/>
+    <n v="0.97777777777777775"/>
+    <n v="0.97777777777777775"/>
+    <n v="0.9"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="0.8"/>
+    <n v="0.97777777777777775"/>
+    <n v="0.97777777777777775"/>
+    <n v="0.9"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.45"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.88749999999999996"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.88749999999999996"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.88749999999999996"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.9555555555555556"/>
+    <n v="0.88749999999999996"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.4"/>
+    <n v="0.4"/>
+    <n v="0.8666666666666667"/>
+    <n v="0.8666666666666667"/>
+    <n v="0.66250000000000009"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.4375"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.77777777777777779"/>
+    <n v="0.4375"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.8666666666666667"/>
+    <n v="0.8666666666666667"/>
+    <n v="0.48749999999999999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.4"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.6875"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.4"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.6875"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.4"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.6875"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.4"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.6875"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.82222222222222219"/>
+    <n v="0.82222222222222219"/>
+    <n v="0.46250000000000002"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.91111111111111109"/>
+    <n v="0.77499999999999991"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2FFA3A8-2C2B-5D4A-A60C-01CA8D07E4E6}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2FFA3A8-2C2B-5D4A-A60C-01CA8D07E4E6}" name="PivotTable3" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -3164,7 +3857,7 @@
     </i>
   </colItems>
   <dataFields count="6">
-    <dataField name="Average of Faithfulness score" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="172"/>
+    <dataField name="Average of Faithfulness score" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="166"/>
     <dataField name="Average of Balanced accuracy" fld="5" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Average of Accuracy" fld="4" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Average of F1-Score" fld="3" subtotal="average" baseField="0" baseItem="0"/>
@@ -3172,10 +3865,10 @@
     <dataField name="Average of Precision" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3184,7 +3877,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3207,8 +3900,119 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{529962D4-0494-3A45-AF49-ECE3A2E97974}" name="PivotTable6" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E1:F30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A41D3B9-9FC0-BB4B-AAC3-7424D9B3E620}" name="PivotTable9" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="10"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Min of Precision" fld="1" subtotal="min" baseField="0" baseItem="0"/>
+    <dataField name="Max of Precision" fld="1" subtotal="max" baseField="0" baseItem="0"/>
+    <dataField name="Average of Precision" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{529962D4-0494-3A45-AF49-ECE3A2E97974}" name="PivotTable6" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E1:G30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3337,14 +4141,23 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Documents score:data_jats" fld="0" subtotal="average" baseField="0" baseItem="0" numFmtId="170"/>
+  <dataFields count="2">
+    <dataField name="Average of Documents score:data_jats" fld="0" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="StdDev of Documents score" fld="0" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3643,6 +4456,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{A735F60F-F30C-9A41-BCB2-F169A453CB76}">
+  <we:reference id="a2a4692c-ecd3-4c3d-bc1e-2c407a976176" version="25.0.2.0" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA200000019" version="25.0.2.0" store="en-CA" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>PSIFORECAST</we:customFunctionIds>
+        <we:customFunctionIds>PSIPREDICT</we:customFunctionIds>
+        <we:customFunctionIds>PSIPOSTERIORS</we:customFunctionIds>
+        <we:customFunctionIds>PSITRANSFORM</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B60D8C-6D27-B84F-9F7F-90D93B45EC72}">
   <dimension ref="A3:G18"/>
@@ -3664,30 +4510,30 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
         <v>108</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>109</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>111</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="7">
         <v>4</v>
@@ -3710,7 +4556,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7">
         <v>2.4</v>
@@ -3733,7 +4579,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="7">
         <v>2.4</v>
@@ -3779,7 +4625,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7">
         <v>4</v>
@@ -3802,7 +4648,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="7">
         <v>0.8</v>
@@ -3825,7 +4671,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7">
         <v>1.8</v>
@@ -3848,7 +4694,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7">
         <v>2.6</v>
@@ -3871,7 +4717,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="7">
         <v>2.4</v>
@@ -3894,7 +4740,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7">
         <v>3.8</v>
@@ -3917,7 +4763,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7">
         <v>4</v>
@@ -3940,7 +4786,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7">
         <v>3.4</v>
@@ -4009,7 +4855,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="6">
         <v>2.816901408450704</v>
@@ -4036,14 +4882,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165E3F-9015-3F48-BA7D-65C41B382369}">
+  <dimension ref="A3:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="93.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13">
+        <v>0.8</v>
+      </c>
+      <c r="D13">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.65798122065727715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -4402,22 +5496,22 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="F12">
-        <v>0.8</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="G12">
-        <v>0.47368421052631582</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -4559,31 +5653,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9555555555555556</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="F17">
-        <v>0.9555555555555556</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="G17">
-        <v>0.85714285714285721</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -4591,28 +5685,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E18">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F18">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G18">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
         <v>31</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.68888888888888888</v>
-      </c>
-      <c r="F18">
-        <v>0.68888888888888888</v>
-      </c>
-      <c r="G18">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
       </c>
       <c r="J18" t="s">
         <v>33</v>
@@ -4623,7 +5717,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4644,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -4655,7 +5749,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4673,10 +5767,10 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
         <v>35</v>
@@ -4687,7 +5781,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4708,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>36</v>
@@ -4719,31 +5813,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.91111111111111109</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F22">
-        <v>0.91111111111111109</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G22">
-        <v>0.77777777777777779</v>
+        <v>0.4375</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -4751,28 +5845,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>0.6</v>
+      </c>
+      <c r="D23">
+        <v>0.6</v>
+      </c>
+      <c r="E23">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F23">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G23">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
         <v>38</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F23">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="G23">
-        <v>0.4375</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>39</v>
       </c>
       <c r="J23" t="s">
         <v>40</v>
@@ -4783,7 +5877,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>0.6</v>
@@ -4804,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
@@ -4815,7 +5909,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>0.6</v>
@@ -4836,7 +5930,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
         <v>42</v>
@@ -4847,7 +5941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -4865,10 +5959,10 @@
         <v>0.77499999999999991</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
@@ -4879,31 +5973,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D27">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E27">
-        <v>0.91111111111111109</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F27">
-        <v>0.91111111111111109</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G27">
-        <v>0.77499999999999991</v>
+        <v>0.66250000000000009</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -4911,28 +6005,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28">
+        <v>0.8</v>
+      </c>
+      <c r="E28">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="F28">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="G28">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
         <v>45</v>
-      </c>
-      <c r="C28">
-        <v>0.4</v>
-      </c>
-      <c r="D28">
-        <v>0.4</v>
-      </c>
-      <c r="E28">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="F28">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G28">
-        <v>0.66250000000000009</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>46</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
@@ -4943,7 +6037,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -4961,10 +6055,10 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
         <v>48</v>
@@ -4975,7 +6069,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>0.8</v>
@@ -4996,7 +6090,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
@@ -5007,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>0.8</v>
@@ -5025,10 +6119,10 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
         <v>50</v>
@@ -5039,31 +6133,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.9555555555555556</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F32">
-        <v>0.9555555555555556</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G32">
-        <v>0.88749999999999996</v>
+        <v>0.4375</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -5071,28 +6165,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+      <c r="D33">
+        <v>0.6</v>
+      </c>
+      <c r="E33">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F33">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G33">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
         <v>52</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F33">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="G33">
-        <v>0.4375</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>53</v>
       </c>
       <c r="J33" t="s">
         <v>54</v>
@@ -5103,7 +6197,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>0.6</v>
@@ -5124,7 +6218,7 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s">
         <v>55</v>
@@ -5135,7 +6229,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>0.6</v>
@@ -5156,7 +6250,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s">
         <v>56</v>
@@ -5167,7 +6261,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -5188,7 +6282,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s">
         <v>57</v>
@@ -5199,31 +6293,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C37">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.91111111111111109</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F37">
-        <v>0.91111111111111109</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G37">
-        <v>0.77499999999999991</v>
+        <v>0.4375</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -5231,28 +6325,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.8</v>
+      </c>
+      <c r="E38">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="F38">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="G38">
+        <v>0.9</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
         <v>59</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F38">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="G38">
-        <v>0.4375</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>60</v>
       </c>
       <c r="J38" t="s">
         <v>61</v>
@@ -5263,7 +6357,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -5281,10 +6375,10 @@
         <v>0.9</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J39" t="s">
         <v>62</v>
@@ -5295,7 +6389,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -5313,10 +6407,10 @@
         <v>0.9</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
@@ -5327,7 +6421,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -5348,7 +6442,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" t="s">
         <v>64</v>
@@ -5359,31 +6453,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>0.8</v>
       </c>
-      <c r="E42">
-        <v>0.97777777777777775</v>
-      </c>
       <c r="F42">
-        <v>0.97777777777777775</v>
+        <v>0.8</v>
       </c>
       <c r="G42">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -5391,28 +6485,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+      <c r="E43">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="F43">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="G43">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43" t="s">
         <v>66</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0.8</v>
-      </c>
-      <c r="F43">
-        <v>0.8</v>
-      </c>
-      <c r="G43">
-        <v>0.45</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>67</v>
       </c>
       <c r="J43" t="s">
         <v>68</v>
@@ -5423,7 +6517,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -5444,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J44" t="s">
         <v>69</v>
@@ -5455,7 +6549,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -5476,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
         <v>70</v>
@@ -5487,7 +6581,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -5508,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
         <v>71</v>
@@ -5519,31 +6613,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C47">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D47">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E47">
-        <v>0.9555555555555556</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F47">
-        <v>0.9555555555555556</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G47">
-        <v>0.88749999999999996</v>
+        <v>0.66250000000000009</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5551,28 +6645,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>0.6</v>
+      </c>
+      <c r="D48">
+        <v>0.6</v>
+      </c>
+      <c r="E48">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F48">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G48">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
         <v>73</v>
-      </c>
-      <c r="C48">
-        <v>0.4</v>
-      </c>
-      <c r="D48">
-        <v>0.4</v>
-      </c>
-      <c r="E48">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="F48">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G48">
-        <v>0.66250000000000009</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>74</v>
       </c>
       <c r="J48" t="s">
         <v>75</v>
@@ -5583,7 +6677,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <v>0.6</v>
@@ -5601,10 +6695,10 @@
         <v>0.77499999999999991</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s">
         <v>76</v>
@@ -5615,7 +6709,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>0.6</v>
@@ -5633,10 +6727,10 @@
         <v>0.77499999999999991</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s">
         <v>77</v>
@@ -5647,7 +6741,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51">
         <v>0.6</v>
@@ -5665,10 +6759,10 @@
         <v>0.77499999999999991</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s">
         <v>78</v>
@@ -5679,31 +6773,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C52">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0.91111111111111109</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F52">
-        <v>0.91111111111111109</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G52">
-        <v>0.77499999999999991</v>
+        <v>0.4375</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5711,28 +6805,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
         <v>80</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F53">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="G53">
-        <v>0.4375</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>81</v>
       </c>
       <c r="J53" t="s">
         <v>82</v>
@@ -5743,7 +6837,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5764,7 +6858,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s">
         <v>83</v>
@@ -5775,7 +6869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5796,7 +6890,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s">
         <v>84</v>
@@ -5807,7 +6901,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5828,7 +6922,7 @@
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s">
         <v>85</v>
@@ -5839,31 +6933,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -5871,28 +6965,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.2</v>
+      </c>
+      <c r="E58">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F58">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G58">
+        <v>0.6</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>87</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F58">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="G58">
-        <v>0.4375</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>88</v>
       </c>
       <c r="J58" t="s">
         <v>89</v>
@@ -5903,7 +6997,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5924,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s">
         <v>90</v>
@@ -5935,7 +7029,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5956,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s">
         <v>91</v>
@@ -5967,7 +7061,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5988,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s">
         <v>92</v>
@@ -5999,31 +7093,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0.91111111111111109</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F62">
-        <v>0.91111111111111109</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G62">
-        <v>0.6</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -6031,28 +7125,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D63">
+        <v>0.4</v>
+      </c>
+      <c r="E63">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F63">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G63">
+        <v>0.6875</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
         <v>94</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="F63">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G63">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
-        <v>95</v>
       </c>
       <c r="J63" t="s">
         <v>96</v>
@@ -6063,7 +7157,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64">
         <v>0.66666666666666663</v>
@@ -6084,7 +7178,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J64" t="s">
         <v>97</v>
@@ -6095,7 +7189,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65">
         <v>0.66666666666666663</v>
@@ -6116,10 +7210,10 @@
         <v>3</v>
       </c>
       <c r="I65" t="s">
+        <v>94</v>
+      </c>
+      <c r="J65" t="s">
         <v>95</v>
-      </c>
-      <c r="J65" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -6127,7 +7221,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66">
         <v>0.66666666666666663</v>
@@ -6148,10 +7242,10 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
         <v>95</v>
-      </c>
-      <c r="J66" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -6159,31 +7253,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C67">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.91111111111111109</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="F67">
-        <v>0.91111111111111109</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="G67">
-        <v>0.6875</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J67" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -6191,28 +7285,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68">
+        <v>0.6</v>
+      </c>
+      <c r="D68">
+        <v>0.6</v>
+      </c>
+      <c r="E68">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F68">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G68">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68" t="s">
         <v>99</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0.82222222222222219</v>
-      </c>
-      <c r="F68">
-        <v>0.82222222222222219</v>
-      </c>
-      <c r="G68">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>100</v>
       </c>
       <c r="J68" t="s">
         <v>101</v>
@@ -6223,7 +7317,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69">
         <v>0.6</v>
@@ -6241,10 +7335,10 @@
         <v>0.77499999999999991</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J69" t="s">
         <v>102</v>
@@ -6255,7 +7349,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70">
         <v>0.6</v>
@@ -6273,10 +7367,10 @@
         <v>0.77499999999999991</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J70" t="s">
         <v>103</v>
@@ -6287,7 +7381,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71">
         <v>0.6</v>
@@ -6305,45 +7399,13 @@
         <v>0.77499999999999991</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J71" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72">
-        <v>0.6</v>
-      </c>
-      <c r="D72">
-        <v>0.6</v>
-      </c>
-      <c r="E72">
-        <v>0.91111111111111109</v>
-      </c>
-      <c r="F72">
-        <v>0.91111111111111109</v>
-      </c>
-      <c r="G72">
-        <v>0.77499999999999991</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>100</v>
-      </c>
-      <c r="J72" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6351,455 +7413,546 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D9B92B-C2C9-6241-B82F-2160C0CE9932}">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.63424939999999996</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="4">
         <v>0.72877930000000013</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="4">
+        <v>8.205615104636664E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.63424939999999996</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="4">
         <v>0.29217876000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="4">
+        <v>0.19830631611897789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.63424939999999996</v>
       </c>
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F4" s="4">
         <v>0.22407173133333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <v>1.4717924996650146E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.63424939999999996</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="4">
         <v>0.71281280000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.63424939999999996</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="4">
         <v>0.70774870000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.21158007000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4">
         <v>0.85973333000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="4">
+        <v>0.10061995419984346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.21158007000000001</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4">
         <v>0.22315101999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="4">
+        <v>0.1035599553632796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.21153119000000001</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4">
         <v>0.33245617249999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="4">
+        <v>0.13640184204588227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.21158007000000001</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4">
         <v>0.52480930000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.21158007000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="4">
         <v>0.35937489250000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="4">
+        <v>0.17701597834000357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.78925029999999996</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="4">
         <v>0.93206495</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.78925029999999996</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4">
         <v>0.84493459999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.78925029999999996</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="4">
         <v>0.4636132</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="4">
+        <v>8.6505345019446192E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.78925029999999996</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="4">
         <v>0.38487724333333334</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="4">
+        <v>0.25253360278280557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.78925029999999996</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="4">
         <v>0.54014781090909103</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="4">
+        <v>4.7202564700623333E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.78925029999999996</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" s="4">
         <v>0.30259760000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="4">
+        <v>5.2683560638617543E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.76427685999999995</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="4">
         <v>0.90672759999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.76427685999999995</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="4">
         <v>0.50902492187500004</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="4">
+        <v>0.28519788097708476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.76427685999999995</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="4">
         <v>0.17389092</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.76427685999999995</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="4">
         <v>0.52498712999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="4">
+        <v>0.20898882736464425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.76427685999999995</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="4">
         <v>0.57721637500000011</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="4">
+        <v>0.29532346753716215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.88915429999999995</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="4">
         <v>0.68999980666666683</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="4">
+        <v>0.13709071790885707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.88915429999999995</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="4">
         <v>0.31280202500000009</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="4">
+        <v>0.16747857301429983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.88915429999999995</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="4">
         <v>0.60809920904761883</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="4">
+        <v>0.24348952168739629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.88915429999999995</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="4">
         <v>0.86275720000000011</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.88915429999999995</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="4">
         <v>0.54474180999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="4">
+        <v>3.3345005720038817E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.72861359999999997</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" s="4">
         <v>0.72207695000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.72861359999999997</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" s="4">
         <v>0.5468963</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="4">
+        <v>0.22601009255734075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.72861359999999997</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="4">
         <v>0.51060766576666727</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="4">
+        <v>0.25066658015021326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.72861359999999997</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.72861359999999997</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,7 +7960,7 @@
         <v>0.90672759999999997</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -6815,7 +7968,7 @@
         <v>0.90672759999999997</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -6823,7 +7976,7 @@
         <v>0.90672759999999997</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -6831,7 +7984,7 @@
         <v>0.90672759999999997</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -6839,7 +7992,7 @@
         <v>0.90672759999999997</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -6847,7 +8000,7 @@
         <v>0.95518979999999998</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,7 +8008,7 @@
         <v>0.95518979999999998</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -6863,7 +8016,7 @@
         <v>0.95518979999999998</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -6871,7 +8024,7 @@
         <v>0.95518979999999998</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -6879,7 +8032,7 @@
         <v>0.95518979999999998</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -6887,7 +8040,7 @@
         <v>0.84121380000000001</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -6895,7 +8048,7 @@
         <v>0.84121380000000001</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -6903,7 +8056,7 @@
         <v>0.84121380000000001</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -6911,7 +8064,7 @@
         <v>0.84121380000000001</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -6919,7 +8072,7 @@
         <v>0.84121380000000001</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -6927,7 +8080,7 @@
         <v>0.48030865</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -6935,7 +8088,7 @@
         <v>0.48030865</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -6943,7 +8096,7 @@
         <v>0.48030865</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -6951,7 +8104,7 @@
         <v>0.48030865</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -6959,7 +8112,7 @@
         <v>0.48030865</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -6967,7 +8120,7 @@
         <v>0.80662460000000002</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -6975,7 +8128,7 @@
         <v>0.80662460000000002</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -6983,7 +8136,7 @@
         <v>0.80662460000000002</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -6991,7 +8144,7 @@
         <v>0.80662460000000002</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -6999,7 +8152,7 @@
         <v>0.80662460000000002</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -7007,7 +8160,7 @@
         <v>0.93206495</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -7015,7 +8168,7 @@
         <v>0.93206495</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -7023,7 +8176,7 @@
         <v>0.93206495</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -7031,7 +8184,7 @@
         <v>0.93206495</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -7039,7 +8192,7 @@
         <v>0.93206495</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -7047,7 +8200,7 @@
         <v>0.72207695000000005</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -7055,7 +8208,7 @@
         <v>0.72207695000000005</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -7063,7 +8216,7 @@
         <v>0.72207695000000005</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -7071,7 +8224,7 @@
         <v>0.72207695000000005</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -7079,7 +8232,7 @@
         <v>0.72207695000000005</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -7087,7 +8240,7 @@
         <v>0.65093400000000001</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -7095,7 +8248,7 @@
         <v>0.65093400000000001</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -7103,7 +8256,7 @@
         <v>0.65093400000000001</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -7111,7 +8264,7 @@
         <v>0.65093400000000001</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -7119,7 +8272,7 @@
         <v>0.65093400000000001</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -7127,7 +8280,7 @@
         <v>0.33665863000000001</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -7135,7 +8288,7 @@
         <v>0.33665863000000001</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -7143,7 +8296,7 @@
         <v>0.33665863000000001</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -7151,7 +8304,7 @@
         <v>0.33665863000000001</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -7159,7 +8312,7 @@
         <v>0.33665863000000001</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -7167,7 +8320,7 @@
         <v>0.12490542</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -7175,7 +8328,7 @@
         <v>0.12490542</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -7183,7 +8336,7 @@
         <v>0.12490542</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -7191,7 +8344,7 @@
         <v>0.12490542</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -7199,7 +8352,7 @@
         <v>0.12490542</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -7207,7 +8360,7 @@
         <v>0.75181264000000003</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +8368,7 @@
         <v>0.75181264000000003</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -7223,7 +8376,7 @@
         <v>0.75181264000000003</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -7231,7 +8384,7 @@
         <v>0.75181264000000003</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -7239,7 +8392,7 @@
         <v>0.75181264000000003</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -7247,7 +8400,7 @@
         <v>0.75181264000000003</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -7255,7 +8408,7 @@
         <v>0.54492306999999995</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -7263,7 +8416,7 @@
         <v>0.54492306999999995</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -7271,7 +8424,7 @@
         <v>0.54492306999999995</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -7279,7 +8432,7 @@
         <v>0.54492306999999995</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -7287,7 +8440,7 @@
         <v>0.54492306999999995</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -7295,7 +8448,7 @@
         <v>0.28911120000000001</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -7303,7 +8456,7 @@
         <v>0.28911120000000001</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -7311,7 +8464,7 @@
         <v>0.28911120000000001</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -7319,7 +8472,7 @@
         <v>0.28911120000000001</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -7327,7 +8480,7 @@
         <v>0.28911120000000001</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -7335,7 +8488,7 @@
         <v>0.54782754</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -7343,7 +8496,7 @@
         <v>0.54782754</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -7351,7 +8504,7 @@
         <v>0.54782754</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -7359,7 +8512,7 @@
         <v>0.54782754</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -7367,7 +8520,7 @@
         <v>0.54782754</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -7375,7 +8528,7 @@
         <v>0.8627572</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -7383,7 +8536,7 @@
         <v>0.8627572</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -7391,7 +8544,7 @@
         <v>0.8627572</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -7399,7 +8552,7 @@
         <v>0.8627572</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -7407,7 +8560,7 @@
         <v>0.8627572</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -7415,7 +8568,7 @@
         <v>0.43813655000000001</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -7423,7 +8576,7 @@
         <v>0.43813655000000001</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -7431,7 +8584,7 @@
         <v>0.43813655000000001</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -7439,7 +8592,7 @@
         <v>0.43813655000000001</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -7447,7 +8600,7 @@
         <v>0.43813655000000001</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -7455,7 +8608,7 @@
         <v>0.55680989999999997</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -7463,7 +8616,7 @@
         <v>0.55680989999999997</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -7471,7 +8624,7 @@
         <v>0.55680989999999997</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -7479,7 +8632,7 @@
         <v>0.55680989999999997</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -7487,7 +8640,7 @@
         <v>0.55680989999999997</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -7495,7 +8648,7 @@
         <v>0.32139662000000002</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -7503,7 +8656,7 @@
         <v>0.32139662000000002</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -7511,7 +8664,7 @@
         <v>0.32139662000000002</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -7519,7 +8672,7 @@
         <v>0.32139662000000002</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -7527,7 +8680,7 @@
         <v>0.32139662000000002</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -7535,7 +8688,7 @@
         <v>0.76130830000000005</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -7543,7 +8696,7 @@
         <v>0.76130830000000005</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -7551,7 +8704,7 @@
         <v>0.76130830000000005</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -7559,7 +8712,7 @@
         <v>0.76130830000000005</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -7567,7 +8720,7 @@
         <v>0.76130830000000005</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -7575,7 +8728,7 @@
         <v>0.30259760000000002</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -7583,7 +8736,7 @@
         <v>0.30259760000000002</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -7591,7 +8744,7 @@
         <v>0.30259760000000002</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -7599,7 +8752,7 @@
         <v>0.30259760000000002</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -7607,7 +8760,7 @@
         <v>0.30259760000000002</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -7615,7 +8768,7 @@
         <v>0.51954630000000002</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -7623,7 +8776,7 @@
         <v>0.51954630000000002</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -7631,7 +8784,7 @@
         <v>0.51954630000000002</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -7639,7 +8792,7 @@
         <v>0.51954630000000002</v>
       </c>
       <c r="B137" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -7647,7 +8800,7 @@
         <v>0.51954630000000002</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -7655,7 +8808,7 @@
         <v>0.24396245</v>
       </c>
       <c r="B139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -7663,7 +8816,7 @@
         <v>0.24396245</v>
       </c>
       <c r="B140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -7671,7 +8824,7 @@
         <v>0.24396245</v>
       </c>
       <c r="B141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -7679,7 +8832,7 @@
         <v>0.24396245</v>
       </c>
       <c r="B142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -7687,7 +8840,7 @@
         <v>0.24396245</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -7695,7 +8848,7 @@
         <v>0.51310796000000003</v>
       </c>
       <c r="B144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -7703,7 +8856,7 @@
         <v>0.51310796000000003</v>
       </c>
       <c r="B145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -7711,7 +8864,7 @@
         <v>0.51310796000000003</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -7719,7 +8872,7 @@
         <v>0.51310796000000003</v>
       </c>
       <c r="B147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -7727,7 +8880,7 @@
         <v>0.51310796000000003</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -7735,7 +8888,7 @@
         <v>0.33248430000000001</v>
       </c>
       <c r="B149" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -7743,7 +8896,7 @@
         <v>0.33248430000000001</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -7751,7 +8904,7 @@
         <v>0.33248430000000001</v>
       </c>
       <c r="B151" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -7759,7 +8912,7 @@
         <v>0.33248430000000001</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -7767,7 +8920,7 @@
         <v>0.33248430000000001</v>
       </c>
       <c r="B153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -7775,7 +8928,7 @@
         <v>0.32672292000000003</v>
       </c>
       <c r="B154" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -7783,7 +8936,7 @@
         <v>0.32672292000000003</v>
       </c>
       <c r="B155" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -7791,7 +8944,7 @@
         <v>0.32672292000000003</v>
       </c>
       <c r="B156" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -7799,7 +8952,7 @@
         <v>0.32672292000000003</v>
       </c>
       <c r="B157" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -7807,7 +8960,7 @@
         <v>0.32672292000000003</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -7815,7 +8968,7 @@
         <v>0.71281280000000002</v>
       </c>
       <c r="B159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -7823,7 +8976,7 @@
         <v>0.71281280000000002</v>
       </c>
       <c r="B160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -7831,7 +8984,7 @@
         <v>0.71281280000000002</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -7839,7 +8992,7 @@
         <v>0.71281280000000002</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -7847,7 +9000,7 @@
         <v>0.71281280000000002</v>
       </c>
       <c r="B163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -7855,7 +9008,7 @@
         <v>0.71281280000000002</v>
       </c>
       <c r="B164" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -7863,7 +9016,7 @@
         <v>0.33724773000000002</v>
       </c>
       <c r="B165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -7871,7 +9024,7 @@
         <v>0.33724773000000002</v>
       </c>
       <c r="B166" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -7879,7 +9032,7 @@
         <v>0.33724773000000002</v>
       </c>
       <c r="B167" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -7887,7 +9040,7 @@
         <v>0.33724773000000002</v>
       </c>
       <c r="B168" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -7895,7 +9048,7 @@
         <v>0.33724773000000002</v>
       </c>
       <c r="B169" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -7903,7 +9056,7 @@
         <v>0.17389092</v>
       </c>
       <c r="B170" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -7911,7 +9064,7 @@
         <v>0.17389092</v>
       </c>
       <c r="B171" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -7919,7 +9072,7 @@
         <v>0.17389092</v>
       </c>
       <c r="B172" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -7927,7 +9080,7 @@
         <v>0.17389092</v>
       </c>
       <c r="B173" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -7935,7 +9088,7 @@
         <v>0.17389092</v>
       </c>
       <c r="B174" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -7943,7 +9096,7 @@
         <v>0.53473455000000003</v>
       </c>
       <c r="B175" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -7951,7 +9104,7 @@
         <v>0.53473455000000003</v>
       </c>
       <c r="B176" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -7959,7 +9112,7 @@
         <v>0.53473455000000003</v>
       </c>
       <c r="B177" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -7967,7 +9120,7 @@
         <v>0.53473455000000003</v>
       </c>
       <c r="B178" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -7975,7 +9128,7 @@
         <v>0.53473455000000003</v>
       </c>
       <c r="B179" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -7983,7 +9136,7 @@
         <v>0.84493459999999998</v>
       </c>
       <c r="B180" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -7991,7 +9144,7 @@
         <v>0.84493459999999998</v>
       </c>
       <c r="B181" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -7999,7 +9152,7 @@
         <v>0.84493459999999998</v>
       </c>
       <c r="B182" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -8007,7 +9160,7 @@
         <v>0.84493459999999998</v>
       </c>
       <c r="B183" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -8015,7 +9168,7 @@
         <v>0.84493459999999998</v>
       </c>
       <c r="B184" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -8023,7 +9176,7 @@
         <v>0.21703074999999999</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -8031,7 +9184,7 @@
         <v>0.21703074999999999</v>
       </c>
       <c r="B186" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -8039,7 +9192,7 @@
         <v>0.21703074999999999</v>
       </c>
       <c r="B187" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -8047,7 +9200,7 @@
         <v>0.21703074999999999</v>
       </c>
       <c r="B188" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -8055,7 +9208,7 @@
         <v>0.21703074999999999</v>
       </c>
       <c r="B189" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -8063,7 +9216,7 @@
         <v>0.50490767000000003</v>
       </c>
       <c r="B190" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -8071,7 +9224,7 @@
         <v>0.50490767000000003</v>
       </c>
       <c r="B191" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -8079,7 +9232,7 @@
         <v>0.50490767000000003</v>
       </c>
       <c r="B192" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -8087,7 +9240,7 @@
         <v>0.50490767000000003</v>
       </c>
       <c r="B193" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -8095,7 +9248,7 @@
         <v>0.50490767000000003</v>
       </c>
       <c r="B194" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -8103,7 +9256,7 @@
         <v>0.25777953999999997</v>
       </c>
       <c r="B195" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -8111,7 +9264,7 @@
         <v>0.25777953999999997</v>
       </c>
       <c r="B196" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -8119,7 +9272,7 @@
         <v>0.25777953999999997</v>
       </c>
       <c r="B197" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -8127,7 +9280,7 @@
         <v>0.25777953999999997</v>
       </c>
       <c r="B198" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -8135,7 +9288,7 @@
         <v>0.25777953999999997</v>
       </c>
       <c r="B199" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -8143,7 +9296,7 @@
         <v>0.70799106000000001</v>
       </c>
       <c r="B200" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -8151,7 +9304,7 @@
         <v>0.70799106000000001</v>
       </c>
       <c r="B201" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -8159,7 +9312,7 @@
         <v>0.70799106000000001</v>
       </c>
       <c r="B202" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -8167,7 +9320,7 @@
         <v>0.70799106000000001</v>
       </c>
       <c r="B203" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -8175,7 +9328,7 @@
         <v>0.70799106000000001</v>
       </c>
       <c r="B204" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -8183,7 +9336,7 @@
         <v>0.70361110000000004</v>
       </c>
       <c r="B205" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -8191,7 +9344,7 @@
         <v>0.70361110000000004</v>
       </c>
       <c r="B206" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -8199,7 +9352,7 @@
         <v>0.70361110000000004</v>
       </c>
       <c r="B207" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -8207,7 +9360,7 @@
         <v>0.70361110000000004</v>
       </c>
       <c r="B208" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -8215,7 +9368,7 @@
         <v>0.70361110000000004</v>
       </c>
       <c r="B209" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -8223,7 +9376,7 @@
         <v>0.70361110000000004</v>
       </c>
       <c r="B210" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -8231,7 +9384,7 @@
         <v>0.21668245</v>
       </c>
       <c r="B211" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -8239,7 +9392,7 @@
         <v>0.21668245</v>
       </c>
       <c r="B212" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -8247,7 +9400,7 @@
         <v>0.21668245</v>
       </c>
       <c r="B213" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -8255,7 +9408,7 @@
         <v>0.21668245</v>
       </c>
       <c r="B214" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -8263,7 +9416,7 @@
         <v>0.21668245</v>
       </c>
       <c r="B215" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -8271,7 +9424,7 @@
         <v>0.12496949</v>
       </c>
       <c r="B216" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -8279,7 +9432,7 @@
         <v>0.12496949</v>
       </c>
       <c r="B217" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -8287,7 +9440,7 @@
         <v>0.12496949</v>
       </c>
       <c r="B218" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -8295,7 +9448,7 @@
         <v>0.12496949</v>
       </c>
       <c r="B219" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -8303,7 +9456,7 @@
         <v>0.12496949</v>
       </c>
       <c r="B220" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -8311,7 +9464,7 @@
         <v>0.52480930000000003</v>
       </c>
       <c r="B221" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -8319,7 +9472,7 @@
         <v>0.52480930000000003</v>
       </c>
       <c r="B222" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -8327,7 +9480,7 @@
         <v>0.52480930000000003</v>
       </c>
       <c r="B223" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -8335,7 +9488,7 @@
         <v>0.52480930000000003</v>
       </c>
       <c r="B224" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -8343,7 +9496,7 @@
         <v>0.52480930000000003</v>
       </c>
       <c r="B225" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -8351,7 +9504,7 @@
         <v>0.84246206000000001</v>
       </c>
       <c r="B226" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -8359,7 +9512,7 @@
         <v>0.84246206000000001</v>
       </c>
       <c r="B227" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -8367,7 +9520,7 @@
         <v>0.84246206000000001</v>
       </c>
       <c r="B228" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -8375,7 +9528,7 @@
         <v>0.84246206000000001</v>
       </c>
       <c r="B229" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -8383,7 +9536,7 @@
         <v>0.84246206000000001</v>
       </c>
       <c r="B230" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -8391,7 +9544,7 @@
         <v>0.16313886999999999</v>
       </c>
       <c r="B231" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -8399,7 +9552,7 @@
         <v>0.16313886999999999</v>
       </c>
       <c r="B232" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -8407,7 +9560,7 @@
         <v>0.16313886999999999</v>
       </c>
       <c r="B233" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -8415,7 +9568,7 @@
         <v>0.16313886999999999</v>
       </c>
       <c r="B234" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -8423,7 +9576,7 @@
         <v>0.16313886999999999</v>
       </c>
       <c r="B235" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -8431,7 +9584,7 @@
         <v>0.49084633999999999</v>
       </c>
       <c r="B236" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -8439,7 +9592,7 @@
         <v>0.49084633999999999</v>
       </c>
       <c r="B237" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -8447,7 +9600,7 @@
         <v>0.49084633999999999</v>
       </c>
       <c r="B238" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -8455,7 +9608,7 @@
         <v>0.49084633999999999</v>
       </c>
       <c r="B239" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -8463,7 +9616,7 @@
         <v>0.49084633999999999</v>
       </c>
       <c r="B240" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -8471,7 +9624,7 @@
         <v>0.16154528000000001</v>
       </c>
       <c r="B241" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -8479,7 +9632,7 @@
         <v>0.16154528000000001</v>
       </c>
       <c r="B242" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -8487,7 +9640,7 @@
         <v>0.16154528000000001</v>
       </c>
       <c r="B243" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -8495,7 +9648,7 @@
         <v>0.16154528000000001</v>
       </c>
       <c r="B244" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -8503,7 +9656,7 @@
         <v>0.16154528000000001</v>
       </c>
       <c r="B245" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -8511,7 +9664,7 @@
         <v>0.70774870000000001</v>
       </c>
       <c r="B246" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -8519,7 +9672,7 @@
         <v>0.70774870000000001</v>
       </c>
       <c r="B247" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -8527,7 +9680,7 @@
         <v>0.70774870000000001</v>
       </c>
       <c r="B248" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -8535,7 +9688,7 @@
         <v>0.70774870000000001</v>
       </c>
       <c r="B249" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -8543,7 +9696,7 @@
         <v>0.70774870000000001</v>
       </c>
       <c r="B250" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -8551,7 +9704,7 @@
         <v>0.47168615000000003</v>
       </c>
       <c r="B251" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -8559,7 +9712,7 @@
         <v>0.47168615000000003</v>
       </c>
       <c r="B252" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -8567,7 +9720,7 @@
         <v>0.47168615000000003</v>
       </c>
       <c r="B253" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -8575,7 +9728,7 @@
         <v>0.47168615000000003</v>
       </c>
       <c r="B254" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -8583,7 +9736,7 @@
         <v>0.47168615000000003</v>
       </c>
       <c r="B255" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -8591,7 +9744,7 @@
         <v>0.1539179</v>
       </c>
       <c r="B256" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -8599,7 +9752,7 @@
         <v>0.1539179</v>
       </c>
       <c r="B257" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -8607,7 +9760,7 @@
         <v>0.1539179</v>
       </c>
       <c r="B258" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -8615,7 +9768,7 @@
         <v>0.1539179</v>
       </c>
       <c r="B259" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -8623,7 +9776,7 @@
         <v>0.1539179</v>
       </c>
       <c r="B260" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -8631,7 +9784,7 @@
         <v>0.57637565999999996</v>
       </c>
       <c r="B261" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -8639,7 +9792,7 @@
         <v>0.57637565999999996</v>
       </c>
       <c r="B262" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -8647,7 +9800,7 @@
         <v>0.57637565999999996</v>
       </c>
       <c r="B263" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -8655,7 +9808,7 @@
         <v>0.57637565999999996</v>
       </c>
       <c r="B264" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -8663,7 +9816,7 @@
         <v>0.57637565999999996</v>
       </c>
       <c r="B265" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -8671,7 +9824,7 @@
         <v>0.58123237000000005</v>
       </c>
       <c r="B266" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -8679,7 +9832,7 @@
         <v>0.58123237000000005</v>
       </c>
       <c r="B267" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -8687,7 +9840,7 @@
         <v>0.58123237000000005</v>
       </c>
       <c r="B268" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -8695,7 +9848,7 @@
         <v>0.58123237000000005</v>
       </c>
       <c r="B269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -8703,7 +9856,7 @@
         <v>0.58123237000000005</v>
       </c>
       <c r="B270" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -8711,7 +9864,7 @@
         <v>0.58123237000000005</v>
       </c>
       <c r="B271" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -8719,7 +9872,7 @@
         <v>0.18719247</v>
       </c>
       <c r="B272" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -8727,7 +9880,7 @@
         <v>0.18719247</v>
       </c>
       <c r="B273" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -8735,7 +9888,7 @@
         <v>0.18719247</v>
       </c>
       <c r="B274" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -8743,7 +9896,7 @@
         <v>0.18719247</v>
       </c>
       <c r="B275" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -8751,7 +9904,7 @@
         <v>0.18719247</v>
       </c>
       <c r="B276" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -8759,7 +9912,7 @@
         <v>0.10404887</v>
       </c>
       <c r="B277" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -8767,7 +9920,7 @@
         <v>0.10404887</v>
       </c>
       <c r="B278" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -8775,7 +9928,7 @@
         <v>0.10404887</v>
       </c>
       <c r="B279" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -8783,7 +9936,7 @@
         <v>0.10404887</v>
       </c>
       <c r="B280" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -8791,7 +9944,7 @@
         <v>0.10404887</v>
       </c>
       <c r="B281" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -8799,7 +9952,7 @@
         <v>0.35100009999999998</v>
       </c>
       <c r="B282" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -8807,7 +9960,7 @@
         <v>0.35100009999999998</v>
       </c>
       <c r="B283" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -8815,7 +9968,7 @@
         <v>0.35100009999999998</v>
       </c>
       <c r="B284" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -8823,7 +9976,7 @@
         <v>0.35100009999999998</v>
       </c>
       <c r="B285" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -8831,7 +9984,7 @@
         <v>0.35100009999999998</v>
       </c>
       <c r="B286" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -8839,7 +9992,7 @@
         <v>0.72325134000000002</v>
       </c>
       <c r="B287" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -8847,7 +10000,7 @@
         <v>0.72325134000000002</v>
       </c>
       <c r="B288" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -8855,7 +10008,7 @@
         <v>0.72325134000000002</v>
       </c>
       <c r="B289" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -8863,7 +10016,7 @@
         <v>0.72325134000000002</v>
       </c>
       <c r="B290" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -8871,7 +10024,7 @@
         <v>0.72325134000000002</v>
       </c>
       <c r="B291" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -8879,7 +10032,7 @@
         <v>0.23882566</v>
       </c>
       <c r="B292" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -8887,7 +10040,7 @@
         <v>0.23882566</v>
       </c>
       <c r="B293" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -8895,7 +10048,7 @@
         <v>0.23882566</v>
       </c>
       <c r="B294" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -8903,7 +10056,7 @@
         <v>0.23882566</v>
       </c>
       <c r="B295" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -8911,7 +10064,7 @@
         <v>0.23882566</v>
       </c>
       <c r="B296" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -8919,7 +10072,7 @@
         <v>0.22771867000000001</v>
       </c>
       <c r="B297" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -8927,7 +10080,7 @@
         <v>0.22771867000000001</v>
       </c>
       <c r="B298" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -8935,7 +10088,7 @@
         <v>0.22771867000000001</v>
       </c>
       <c r="B299" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -8943,7 +10096,7 @@
         <v>0.22771867000000001</v>
       </c>
       <c r="B300" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -8951,7 +10104,7 @@
         <v>0.22771867000000001</v>
       </c>
       <c r="B301" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
